--- a/Engine/Tables/MissionInfoTable.xlsx
+++ b/Engine/Tables/MissionInfoTable.xlsx
@@ -15,13 +15,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>Replace</t>
   </si>
   <si>
     <t>MissionKinds</t>
@@ -30,13 +33,10 @@
     <t>RewardKinds</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>샘플 자유 미션 정보</t>
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>샘플 자유 미션 정보</t>
   </si>
   <si>
     <t>샘플 일일 미션 정보</t>
@@ -303,8 +303,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="15.86"/>
+    <col customWidth="1" min="1" max="1" width="15.86"/>
+    <col customWidth="1" min="2" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -331,20 +331,20 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
@@ -1360,8 +1360,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="15.86"/>
+    <col customWidth="1" min="1" max="1" width="15.86"/>
+    <col customWidth="1" min="2" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1386,22 +1386,22 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.0E7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
@@ -2417,8 +2417,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="17.57"/>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="2" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2443,22 +2443,22 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>-1.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
